--- a/450 DSA Sheet (Love Babbar)/FINAL450.xlsx
+++ b/450 DSA Sheet (Love Babbar)/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B.Tech(CSE)\Coding Practice\Competetive-Programming\450 DSA Sheet (Love Babbar)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F236D6FB-F982-4D1D-B9AE-7B41B94F9A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E6446F-4AEE-4B9D-A9FB-E3F09E195B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,12 +1644,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1703,15 +1712,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1724,11 +1724,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1948,8 +1957,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1966,22 +1975,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3"/>
@@ -2006,14 +2015,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2038,15 +2047,15 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="24" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="2"/>
@@ -2070,13 +2079,13 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="21" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2"/>
@@ -2100,12 +2109,12 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2175,7 +2184,7 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2224,7 @@
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
@@ -2255,7 +2264,7 @@
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
@@ -2295,7 +2304,7 @@
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
@@ -2335,7 +2344,7 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="3" t="s">
         <v>486</v>
       </c>
@@ -2375,7 +2384,7 @@
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="3" t="s">
         <v>29</v>
       </c>
@@ -2415,7 +2424,7 @@
       <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
@@ -2455,7 +2464,7 @@
       <c r="E14" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="3" t="s">
         <v>488</v>
       </c>

--- a/450 DSA Sheet (Love Babbar)/FINAL450.xlsx
+++ b/450 DSA Sheet (Love Babbar)/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B.Tech(CSE)\Coding Practice\Competetive-Programming\450 DSA Sheet (Love Babbar)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E6446F-4AEE-4B9D-A9FB-E3F09E195B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FBC783-D976-4CA2-B264-9595AC26C522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="490">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1492,6 +1492,9 @@
   </si>
   <si>
     <t>Remember the 3 key points of the algorithm - add every element into sum, update the maxi variable if sum is greater and reset the value of sum if sum becomes less than zero.</t>
+  </si>
+  <si>
+    <t>Revise the algorithm. Sum the elements as you traverse the array, update the maxi if found new maximum. Reset the value of sum if it gets negative.</t>
   </si>
 </sst>
 </file>
@@ -1727,6 +1730,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,9 +1741,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1956,9 +1959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A133" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1975,22 +1978,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3"/>
@@ -2015,14 +2018,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2047,14 +2050,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="20" t="s">
         <v>3</v>
       </c>
@@ -2079,12 +2082,12 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="18" t="s">
         <v>4</v>
       </c>
@@ -2109,12 +2112,12 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2384,7 +2387,7 @@
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="3" t="s">
         <v>29</v>
       </c>
@@ -2634,7 +2637,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="63" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
@@ -2646,9 +2649,9 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>489</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>

--- a/450 DSA Sheet (Love Babbar)/FINAL450.xlsx
+++ b/450 DSA Sheet (Love Babbar)/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B.Tech(CSE)\Coding Practice\Competetive-Programming\450 DSA Sheet (Love Babbar)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FBC783-D976-4CA2-B264-9595AC26C522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3595CA6-CBF8-4EC8-BDAE-BD2C20B47925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="491">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Hare and Toroise Algorithm(Slow and Fast pointer method)</t>
   </si>
   <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
     <t>Kadane's Algo [V.V.V.V.V IMP]</t>
   </si>
   <si>
@@ -1495,13 +1492,19 @@
   </si>
   <si>
     <t>Revise the algorithm. Sum the elements as you traverse the array, update the maxi if found new maximum. Reset the value of sum if it gets negative.</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/merge-two-sorted-arrays-1587115620/1?utm_source=gfg&amp;utm_medium=article&amp;utm_campaign=bottom_sticky_on_article</t>
+  </si>
+  <si>
+    <t>Still don’t understand the concept properly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1608,8 +1611,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1646,6 +1663,12 @@
         <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1665,10 +1688,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1742,8 +1766,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1959,9 +1990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A133" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2349,7 +2380,7 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2465,11 +2496,11 @@
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2503,9 +2534,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>490</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2605,8 +2636,8 @@
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
+      <c r="B18" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>25</v>
@@ -2642,7 +2673,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>25</v>
@@ -2651,7 +2682,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="19"/>
       <c r="G19" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2678,7 +2709,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>25</v>
@@ -2714,7 +2745,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>25</v>
@@ -2750,7 +2781,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>25</v>
@@ -2786,7 +2817,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>25</v>
@@ -2822,7 +2853,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>25</v>
@@ -2858,7 +2889,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>25</v>
@@ -2894,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>25</v>
@@ -2930,7 +2961,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>25</v>
@@ -2966,7 +2997,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>25</v>
@@ -3002,7 +3033,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>25</v>
@@ -3038,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>25</v>
@@ -3074,7 +3105,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>25</v>
@@ -3110,7 +3141,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>25</v>
@@ -3146,7 +3177,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>25</v>
@@ -3182,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>25</v>
@@ -3218,7 +3249,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>25</v>
@@ -3254,7 +3285,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>25</v>
@@ -3290,7 +3321,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>25</v>
@@ -3326,7 +3357,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>25</v>
@@ -3362,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>25</v>
@@ -3398,7 +3429,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>25</v>
@@ -3434,7 +3465,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>25</v>
@@ -3470,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>25</v>
@@ -3567,10 +3598,10 @@
     </row>
     <row r="45" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>25</v>
@@ -3603,10 +3634,10 @@
     </row>
     <row r="46" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>25</v>
@@ -3639,10 +3670,10 @@
     </row>
     <row r="47" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>25</v>
@@ -3675,10 +3706,10 @@
     </row>
     <row r="48" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>25</v>
@@ -3711,10 +3742,10 @@
     </row>
     <row r="49" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>25</v>
@@ -3747,10 +3778,10 @@
     </row>
     <row r="50" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>25</v>
@@ -3783,10 +3814,10 @@
     </row>
     <row r="51" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>25</v>
@@ -3819,10 +3850,10 @@
     </row>
     <row r="52" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>25</v>
@@ -3855,10 +3886,10 @@
     </row>
     <row r="53" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>25</v>
@@ -3891,10 +3922,10 @@
     </row>
     <row r="54" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>25</v>
@@ -3987,10 +4018,10 @@
     </row>
     <row r="57" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>25</v>
@@ -4023,10 +4054,10 @@
     </row>
     <row r="58" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>25</v>
@@ -4059,10 +4090,10 @@
     </row>
     <row r="59" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>25</v>
@@ -4095,10 +4126,10 @@
     </row>
     <row r="60" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>25</v>
@@ -4131,10 +4162,10 @@
     </row>
     <row r="61" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>25</v>
@@ -4167,10 +4198,10 @@
     </row>
     <row r="62" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>25</v>
@@ -4203,10 +4234,10 @@
     </row>
     <row r="63" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>25</v>
@@ -4239,10 +4270,10 @@
     </row>
     <row r="64" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>25</v>
@@ -4275,10 +4306,10 @@
     </row>
     <row r="65" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>25</v>
@@ -4311,10 +4342,10 @@
     </row>
     <row r="66" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>25</v>
@@ -4347,10 +4378,10 @@
     </row>
     <row r="67" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>25</v>
@@ -4383,10 +4414,10 @@
     </row>
     <row r="68" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>25</v>
@@ -4419,10 +4450,10 @@
     </row>
     <row r="69" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>25</v>
@@ -4455,10 +4486,10 @@
     </row>
     <row r="70" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>25</v>
@@ -4491,10 +4522,10 @@
     </row>
     <row r="71" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>25</v>
@@ -4527,10 +4558,10 @@
     </row>
     <row r="72" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>25</v>
@@ -4563,10 +4594,10 @@
     </row>
     <row r="73" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>25</v>
@@ -4599,10 +4630,10 @@
     </row>
     <row r="74" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>25</v>
@@ -4635,10 +4666,10 @@
     </row>
     <row r="75" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>25</v>
@@ -4671,10 +4702,10 @@
     </row>
     <row r="76" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>25</v>
@@ -4707,10 +4738,10 @@
     </row>
     <row r="77" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>25</v>
@@ -4743,10 +4774,10 @@
     </row>
     <row r="78" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>25</v>
@@ -4779,10 +4810,10 @@
     </row>
     <row r="79" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>25</v>
@@ -4815,10 +4846,10 @@
     </row>
     <row r="80" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>25</v>
@@ -4851,10 +4882,10 @@
     </row>
     <row r="81" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>25</v>
@@ -4887,10 +4918,10 @@
     </row>
     <row r="82" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>25</v>
@@ -4923,10 +4954,10 @@
     </row>
     <row r="83" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>25</v>
@@ -4959,10 +4990,10 @@
     </row>
     <row r="84" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>25</v>
@@ -4995,10 +5026,10 @@
     </row>
     <row r="85" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>25</v>
@@ -5031,10 +5062,10 @@
     </row>
     <row r="86" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>25</v>
@@ -5067,10 +5098,10 @@
     </row>
     <row r="87" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>25</v>
@@ -5103,10 +5134,10 @@
     </row>
     <row r="88" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>25</v>
@@ -5139,10 +5170,10 @@
     </row>
     <row r="89" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>25</v>
@@ -5175,10 +5206,10 @@
     </row>
     <row r="90" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>25</v>
@@ -5211,10 +5242,10 @@
     </row>
     <row r="91" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>25</v>
@@ -5247,10 +5278,10 @@
     </row>
     <row r="92" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>25</v>
@@ -5283,10 +5314,10 @@
     </row>
     <row r="93" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>25</v>
@@ -5319,10 +5350,10 @@
     </row>
     <row r="94" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>25</v>
@@ -5355,10 +5386,10 @@
     </row>
     <row r="95" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>25</v>
@@ -5391,10 +5422,10 @@
     </row>
     <row r="96" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>25</v>
@@ -5427,10 +5458,10 @@
     </row>
     <row r="97" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>25</v>
@@ -5463,10 +5494,10 @@
     </row>
     <row r="98" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>25</v>
@@ -5499,10 +5530,10 @@
     </row>
     <row r="99" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>25</v>
@@ -5595,10 +5626,10 @@
     </row>
     <row r="102" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>25</v>
@@ -5631,10 +5662,10 @@
     </row>
     <row r="103" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>25</v>
@@ -5667,10 +5698,10 @@
     </row>
     <row r="104" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>25</v>
@@ -5703,10 +5734,10 @@
     </row>
     <row r="105" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>25</v>
@@ -5739,10 +5770,10 @@
     </row>
     <row r="106" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>25</v>
@@ -5775,10 +5806,10 @@
     </row>
     <row r="107" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>25</v>
@@ -5811,10 +5842,10 @@
     </row>
     <row r="108" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>25</v>
@@ -5847,10 +5878,10 @@
     </row>
     <row r="109" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>25</v>
@@ -5883,10 +5914,10 @@
     </row>
     <row r="110" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>25</v>
@@ -5919,10 +5950,10 @@
     </row>
     <row r="111" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>25</v>
@@ -5955,10 +5986,10 @@
     </row>
     <row r="112" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>25</v>
@@ -5991,10 +6022,10 @@
     </row>
     <row r="113" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>25</v>
@@ -6027,10 +6058,10 @@
     </row>
     <row r="114" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>25</v>
@@ -6063,10 +6094,10 @@
     </row>
     <row r="115" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>25</v>
@@ -6099,10 +6130,10 @@
     </row>
     <row r="116" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>25</v>
@@ -6135,10 +6166,10 @@
     </row>
     <row r="117" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>25</v>
@@ -6171,10 +6202,10 @@
     </row>
     <row r="118" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>25</v>
@@ -6207,10 +6238,10 @@
     </row>
     <row r="119" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>25</v>
@@ -6243,10 +6274,10 @@
     </row>
     <row r="120" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>25</v>
@@ -6279,10 +6310,10 @@
     </row>
     <row r="121" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>25</v>
@@ -6315,10 +6346,10 @@
     </row>
     <row r="122" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>25</v>
@@ -6351,10 +6382,10 @@
     </row>
     <row r="123" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>25</v>
@@ -6387,10 +6418,10 @@
     </row>
     <row r="124" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>25</v>
@@ -6423,10 +6454,10 @@
     </row>
     <row r="125" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>25</v>
@@ -6459,10 +6490,10 @@
     </row>
     <row r="126" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>25</v>
@@ -6495,10 +6526,10 @@
     </row>
     <row r="127" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>25</v>
@@ -6531,10 +6562,10 @@
     </row>
     <row r="128" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>25</v>
@@ -6567,10 +6598,10 @@
     </row>
     <row r="129" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>25</v>
@@ -6603,10 +6634,10 @@
     </row>
     <row r="130" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>25</v>
@@ -6639,10 +6670,10 @@
     </row>
     <row r="131" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>25</v>
@@ -6675,10 +6706,10 @@
     </row>
     <row r="132" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>25</v>
@@ -6711,10 +6742,10 @@
     </row>
     <row r="133" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>25</v>
@@ -6747,10 +6778,10 @@
     </row>
     <row r="134" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>25</v>
@@ -6783,10 +6814,10 @@
     </row>
     <row r="135" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>25</v>
@@ -6819,10 +6850,10 @@
     </row>
     <row r="136" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>25</v>
@@ -6855,10 +6886,10 @@
     </row>
     <row r="137" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>25</v>
@@ -6951,10 +6982,10 @@
     </row>
     <row r="140" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>25</v>
@@ -6987,10 +7018,10 @@
     </row>
     <row r="141" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>25</v>
@@ -7023,10 +7054,10 @@
     </row>
     <row r="142" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>25</v>
@@ -7059,10 +7090,10 @@
     </row>
     <row r="143" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>25</v>
@@ -7095,10 +7126,10 @@
     </row>
     <row r="144" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>25</v>
@@ -7131,10 +7162,10 @@
     </row>
     <row r="145" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>25</v>
@@ -7167,10 +7198,10 @@
     </row>
     <row r="146" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>25</v>
@@ -7203,10 +7234,10 @@
     </row>
     <row r="147" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>25</v>
@@ -7239,10 +7270,10 @@
     </row>
     <row r="148" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>25</v>
@@ -7275,10 +7306,10 @@
     </row>
     <row r="149" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>25</v>
@@ -7311,10 +7342,10 @@
     </row>
     <row r="150" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>25</v>
@@ -7347,10 +7378,10 @@
     </row>
     <row r="151" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>25</v>
@@ -7383,10 +7414,10 @@
     </row>
     <row r="152" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>25</v>
@@ -7419,10 +7450,10 @@
     </row>
     <row r="153" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>25</v>
@@ -7455,10 +7486,10 @@
     </row>
     <row r="154" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>25</v>
@@ -7491,10 +7522,10 @@
     </row>
     <row r="155" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>25</v>
@@ -7527,10 +7558,10 @@
     </row>
     <row r="156" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>25</v>
@@ -7563,10 +7594,10 @@
     </row>
     <row r="157" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>25</v>
@@ -7599,10 +7630,10 @@
     </row>
     <row r="158" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>25</v>
@@ -7635,10 +7666,10 @@
     </row>
     <row r="159" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>25</v>
@@ -7671,10 +7702,10 @@
     </row>
     <row r="160" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>25</v>
@@ -7707,10 +7738,10 @@
     </row>
     <row r="161" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>25</v>
@@ -7743,10 +7774,10 @@
     </row>
     <row r="162" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>25</v>
@@ -7779,10 +7810,10 @@
     </row>
     <row r="163" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>25</v>
@@ -7815,10 +7846,10 @@
     </row>
     <row r="164" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>25</v>
@@ -7851,10 +7882,10 @@
     </row>
     <row r="165" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>25</v>
@@ -7887,10 +7918,10 @@
     </row>
     <row r="166" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>25</v>
@@ -7923,10 +7954,10 @@
     </row>
     <row r="167" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>25</v>
@@ -7959,10 +7990,10 @@
     </row>
     <row r="168" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>25</v>
@@ -7995,10 +8026,10 @@
     </row>
     <row r="169" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>25</v>
@@ -8031,10 +8062,10 @@
     </row>
     <row r="170" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>25</v>
@@ -8067,10 +8098,10 @@
     </row>
     <row r="171" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>25</v>
@@ -8103,10 +8134,10 @@
     </row>
     <row r="172" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>25</v>
@@ -8139,10 +8170,10 @@
     </row>
     <row r="173" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>25</v>
@@ -8175,10 +8206,10 @@
     </row>
     <row r="174" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>25</v>
@@ -8211,10 +8242,10 @@
     </row>
     <row r="175" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>25</v>
@@ -8307,10 +8338,10 @@
     </row>
     <row r="178" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>25</v>
@@ -8343,10 +8374,10 @@
     </row>
     <row r="179" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>25</v>
@@ -8379,10 +8410,10 @@
     </row>
     <row r="180" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>25</v>
@@ -8415,10 +8446,10 @@
     </row>
     <row r="181" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>25</v>
@@ -8451,10 +8482,10 @@
     </row>
     <row r="182" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>25</v>
@@ -8487,10 +8518,10 @@
     </row>
     <row r="183" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>25</v>
@@ -8523,10 +8554,10 @@
     </row>
     <row r="184" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>25</v>
@@ -8559,10 +8590,10 @@
     </row>
     <row r="185" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>25</v>
@@ -8595,10 +8626,10 @@
     </row>
     <row r="186" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>25</v>
@@ -8631,10 +8662,10 @@
     </row>
     <row r="187" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>25</v>
@@ -8667,10 +8698,10 @@
     </row>
     <row r="188" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>25</v>
@@ -8703,10 +8734,10 @@
     </row>
     <row r="189" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>25</v>
@@ -8739,10 +8770,10 @@
     </row>
     <row r="190" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>25</v>
@@ -8775,10 +8806,10 @@
     </row>
     <row r="191" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>25</v>
@@ -8811,10 +8842,10 @@
     </row>
     <row r="192" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>25</v>
@@ -8847,10 +8878,10 @@
     </row>
     <row r="193" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>25</v>
@@ -8883,10 +8914,10 @@
     </row>
     <row r="194" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>25</v>
@@ -8919,10 +8950,10 @@
     </row>
     <row r="195" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>25</v>
@@ -8955,10 +8986,10 @@
     </row>
     <row r="196" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>25</v>
@@ -8991,10 +9022,10 @@
     </row>
     <row r="197" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>25</v>
@@ -9027,10 +9058,10 @@
     </row>
     <row r="198" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>25</v>
@@ -9063,10 +9094,10 @@
     </row>
     <row r="199" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>25</v>
@@ -9099,10 +9130,10 @@
     </row>
     <row r="200" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>25</v>
@@ -9135,10 +9166,10 @@
     </row>
     <row r="201" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>25</v>
@@ -9171,10 +9202,10 @@
     </row>
     <row r="202" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>25</v>
@@ -9207,10 +9238,10 @@
     </row>
     <row r="203" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>25</v>
@@ -9243,10 +9274,10 @@
     </row>
     <row r="204" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>25</v>
@@ -9279,10 +9310,10 @@
     </row>
     <row r="205" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>25</v>
@@ -9315,10 +9346,10 @@
     </row>
     <row r="206" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>25</v>
@@ -9351,10 +9382,10 @@
     </row>
     <row r="207" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>25</v>
@@ -9387,10 +9418,10 @@
     </row>
     <row r="208" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>25</v>
@@ -9423,10 +9454,10 @@
     </row>
     <row r="209" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>25</v>
@@ -9459,10 +9490,10 @@
     </row>
     <row r="210" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>25</v>
@@ -9495,10 +9526,10 @@
     </row>
     <row r="211" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>25</v>
@@ -9531,10 +9562,10 @@
     </row>
     <row r="212" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>25</v>
@@ -9627,10 +9658,10 @@
     </row>
     <row r="215" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>25</v>
@@ -9663,10 +9694,10 @@
     </row>
     <row r="216" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>25</v>
@@ -9699,10 +9730,10 @@
     </row>
     <row r="217" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>25</v>
@@ -9735,10 +9766,10 @@
     </row>
     <row r="218" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>25</v>
@@ -9771,10 +9802,10 @@
     </row>
     <row r="219" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>25</v>
@@ -9807,10 +9838,10 @@
     </row>
     <row r="220" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>25</v>
@@ -9843,10 +9874,10 @@
     </row>
     <row r="221" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>25</v>
@@ -9879,10 +9910,10 @@
     </row>
     <row r="222" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>25</v>
@@ -9915,10 +9946,10 @@
     </row>
     <row r="223" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>25</v>
@@ -9951,10 +9982,10 @@
     </row>
     <row r="224" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>25</v>
@@ -9987,10 +10018,10 @@
     </row>
     <row r="225" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>25</v>
@@ -10023,10 +10054,10 @@
     </row>
     <row r="226" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>25</v>
@@ -10059,10 +10090,10 @@
     </row>
     <row r="227" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>25</v>
@@ -10095,10 +10126,10 @@
     </row>
     <row r="228" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>25</v>
@@ -10131,10 +10162,10 @@
     </row>
     <row r="229" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>25</v>
@@ -10167,10 +10198,10 @@
     </row>
     <row r="230" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>25</v>
@@ -10203,10 +10234,10 @@
     </row>
     <row r="231" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>25</v>
@@ -10239,10 +10270,10 @@
     </row>
     <row r="232" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>25</v>
@@ -10275,10 +10306,10 @@
     </row>
     <row r="233" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>25</v>
@@ -10311,10 +10342,10 @@
     </row>
     <row r="234" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>25</v>
@@ -10347,10 +10378,10 @@
     </row>
     <row r="235" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>25</v>
@@ -10383,10 +10414,10 @@
     </row>
     <row r="236" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>25</v>
@@ -10479,10 +10510,10 @@
     </row>
     <row r="239" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>25</v>
@@ -10515,10 +10546,10 @@
     </row>
     <row r="240" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>25</v>
@@ -10551,10 +10582,10 @@
     </row>
     <row r="241" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>25</v>
@@ -10587,10 +10618,10 @@
     </row>
     <row r="242" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>25</v>
@@ -10623,10 +10654,10 @@
     </row>
     <row r="243" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>25</v>
@@ -10659,10 +10690,10 @@
     </row>
     <row r="244" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>25</v>
@@ -10695,10 +10726,10 @@
     </row>
     <row r="245" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>25</v>
@@ -10731,10 +10762,10 @@
     </row>
     <row r="246" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>25</v>
@@ -10767,10 +10798,10 @@
     </row>
     <row r="247" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>25</v>
@@ -10803,10 +10834,10 @@
     </row>
     <row r="248" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>25</v>
@@ -10839,10 +10870,10 @@
     </row>
     <row r="249" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>25</v>
@@ -10875,10 +10906,10 @@
     </row>
     <row r="250" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>25</v>
@@ -10911,10 +10942,10 @@
     </row>
     <row r="251" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>25</v>
@@ -10947,10 +10978,10 @@
     </row>
     <row r="252" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>25</v>
@@ -10983,10 +11014,10 @@
     </row>
     <row r="253" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>25</v>
@@ -11019,10 +11050,10 @@
     </row>
     <row r="254" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>25</v>
@@ -11055,10 +11086,10 @@
     </row>
     <row r="255" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>25</v>
@@ -11091,10 +11122,10 @@
     </row>
     <row r="256" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>25</v>
@@ -11127,10 +11158,10 @@
     </row>
     <row r="257" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>25</v>
@@ -11163,10 +11194,10 @@
     </row>
     <row r="258" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A258" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>25</v>
@@ -11199,10 +11230,10 @@
     </row>
     <row r="259" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>25</v>
@@ -11235,10 +11266,10 @@
     </row>
     <row r="260" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A260" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>25</v>
@@ -11271,10 +11302,10 @@
     </row>
     <row r="261" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>25</v>
@@ -11307,10 +11338,10 @@
     </row>
     <row r="262" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>25</v>
@@ -11343,10 +11374,10 @@
     </row>
     <row r="263" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>25</v>
@@ -11379,10 +11410,10 @@
     </row>
     <row r="264" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>25</v>
@@ -11415,10 +11446,10 @@
     </row>
     <row r="265" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>25</v>
@@ -11451,10 +11482,10 @@
     </row>
     <row r="266" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>25</v>
@@ -11487,10 +11518,10 @@
     </row>
     <row r="267" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>25</v>
@@ -11523,10 +11554,10 @@
     </row>
     <row r="268" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>25</v>
@@ -11559,10 +11590,10 @@
     </row>
     <row r="269" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>25</v>
@@ -11595,10 +11626,10 @@
     </row>
     <row r="270" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>25</v>
@@ -11631,10 +11662,10 @@
     </row>
     <row r="271" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>25</v>
@@ -11667,10 +11698,10 @@
     </row>
     <row r="272" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>25</v>
@@ -11703,10 +11734,10 @@
     </row>
     <row r="273" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>25</v>
@@ -11799,10 +11830,10 @@
     </row>
     <row r="276" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>25</v>
@@ -11835,10 +11866,10 @@
     </row>
     <row r="277" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>25</v>
@@ -11871,10 +11902,10 @@
     </row>
     <row r="278" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>25</v>
@@ -11907,10 +11938,10 @@
     </row>
     <row r="279" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>25</v>
@@ -11943,10 +11974,10 @@
     </row>
     <row r="280" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>25</v>
@@ -11979,10 +12010,10 @@
     </row>
     <row r="281" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>25</v>
@@ -12015,10 +12046,10 @@
     </row>
     <row r="282" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>25</v>
@@ -12051,10 +12082,10 @@
     </row>
     <row r="283" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>25</v>
@@ -12087,10 +12118,10 @@
     </row>
     <row r="284" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A284" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>25</v>
@@ -12123,10 +12154,10 @@
     </row>
     <row r="285" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>25</v>
@@ -12159,10 +12190,10 @@
     </row>
     <row r="286" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A286" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>25</v>
@@ -12195,10 +12226,10 @@
     </row>
     <row r="287" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>25</v>
@@ -12231,10 +12262,10 @@
     </row>
     <row r="288" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>25</v>
@@ -12267,10 +12298,10 @@
     </row>
     <row r="289" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>25</v>
@@ -12303,10 +12334,10 @@
     </row>
     <row r="290" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>25</v>
@@ -12339,10 +12370,10 @@
     </row>
     <row r="291" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>25</v>
@@ -12375,10 +12406,10 @@
     </row>
     <row r="292" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>25</v>
@@ -12411,10 +12442,10 @@
     </row>
     <row r="293" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>25</v>
@@ -12447,10 +12478,10 @@
     </row>
     <row r="294" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C294" s="8" t="s">
         <v>25</v>
@@ -12543,10 +12574,10 @@
     </row>
     <row r="297" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B297" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>25</v>
@@ -12579,10 +12610,10 @@
     </row>
     <row r="298" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A298" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>25</v>
@@ -12615,10 +12646,10 @@
     </row>
     <row r="299" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>25</v>
@@ -12651,10 +12682,10 @@
     </row>
     <row r="300" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A300" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>25</v>
@@ -12687,10 +12718,10 @@
     </row>
     <row r="301" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>25</v>
@@ -12723,10 +12754,10 @@
     </row>
     <row r="302" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A302" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C302" s="8" t="s">
         <v>25</v>
@@ -12759,10 +12790,10 @@
     </row>
     <row r="303" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A303" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C303" s="8" t="s">
         <v>25</v>
@@ -12795,10 +12826,10 @@
     </row>
     <row r="304" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A304" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C304" s="8" t="s">
         <v>25</v>
@@ -12831,10 +12862,10 @@
     </row>
     <row r="305" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A305" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C305" s="8" t="s">
         <v>25</v>
@@ -12867,10 +12898,10 @@
     </row>
     <row r="306" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A306" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C306" s="8" t="s">
         <v>25</v>
@@ -12903,10 +12934,10 @@
     </row>
     <row r="307" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A307" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>25</v>
@@ -12939,10 +12970,10 @@
     </row>
     <row r="308" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A308" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>25</v>
@@ -12975,10 +13006,10 @@
     </row>
     <row r="309" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A309" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>25</v>
@@ -13011,10 +13042,10 @@
     </row>
     <row r="310" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A310" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>25</v>
@@ -13047,10 +13078,10 @@
     </row>
     <row r="311" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A311" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C311" s="8" t="s">
         <v>25</v>
@@ -13083,10 +13114,10 @@
     </row>
     <row r="312" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C312" s="8" t="s">
         <v>25</v>
@@ -13119,10 +13150,10 @@
     </row>
     <row r="313" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>25</v>
@@ -13155,10 +13186,10 @@
     </row>
     <row r="314" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A314" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>25</v>
@@ -13191,10 +13222,10 @@
     </row>
     <row r="315" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C315" s="8" t="s">
         <v>25</v>
@@ -13227,10 +13258,10 @@
     </row>
     <row r="316" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>25</v>
@@ -13263,10 +13294,10 @@
     </row>
     <row r="317" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>25</v>
@@ -13299,10 +13330,10 @@
     </row>
     <row r="318" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>25</v>
@@ -13335,10 +13366,10 @@
     </row>
     <row r="319" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C319" s="8" t="s">
         <v>25</v>
@@ -13371,10 +13402,10 @@
     </row>
     <row r="320" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A320" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C320" s="8" t="s">
         <v>25</v>
@@ -13407,10 +13438,10 @@
     </row>
     <row r="321" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C321" s="8" t="s">
         <v>25</v>
@@ -13443,10 +13474,10 @@
     </row>
     <row r="322" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C322" s="8" t="s">
         <v>25</v>
@@ -13479,10 +13510,10 @@
     </row>
     <row r="323" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A323" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C323" s="8" t="s">
         <v>25</v>
@@ -13515,10 +13546,10 @@
     </row>
     <row r="324" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A324" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C324" s="8" t="s">
         <v>25</v>
@@ -13551,10 +13582,10 @@
     </row>
     <row r="325" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A325" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C325" s="8" t="s">
         <v>25</v>
@@ -13587,10 +13618,10 @@
     </row>
     <row r="326" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A326" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C326" s="8" t="s">
         <v>25</v>
@@ -13623,10 +13654,10 @@
     </row>
     <row r="327" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A327" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>25</v>
@@ -13659,10 +13690,10 @@
     </row>
     <row r="328" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A328" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>25</v>
@@ -13695,10 +13726,10 @@
     </row>
     <row r="329" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A329" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C329" s="8" t="s">
         <v>25</v>
@@ -13731,10 +13762,10 @@
     </row>
     <row r="330" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A330" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C330" s="8" t="s">
         <v>25</v>
@@ -13767,10 +13798,10 @@
     </row>
     <row r="331" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A331" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C331" s="8" t="s">
         <v>25</v>
@@ -13803,10 +13834,10 @@
     </row>
     <row r="332" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A332" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C332" s="8" t="s">
         <v>25</v>
@@ -13839,10 +13870,10 @@
     </row>
     <row r="333" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A333" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>25</v>
@@ -13875,10 +13906,10 @@
     </row>
     <row r="334" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A334" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C334" s="8" t="s">
         <v>25</v>
@@ -13971,10 +14002,10 @@
     </row>
     <row r="337" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B337" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B337" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="C337" s="8" t="s">
         <v>25</v>
@@ -14007,10 +14038,10 @@
     </row>
     <row r="338" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C338" s="8" t="s">
         <v>25</v>
@@ -14043,10 +14074,10 @@
     </row>
     <row r="339" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C339" s="8" t="s">
         <v>25</v>
@@ -14079,10 +14110,10 @@
     </row>
     <row r="340" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C340" s="8" t="s">
         <v>25</v>
@@ -14115,10 +14146,10 @@
     </row>
     <row r="341" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C341" s="8" t="s">
         <v>25</v>
@@ -14151,10 +14182,10 @@
     </row>
     <row r="342" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C342" s="8" t="s">
         <v>25</v>
@@ -14187,10 +14218,10 @@
     </row>
     <row r="343" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C343" s="8" t="s">
         <v>25</v>
@@ -14223,10 +14254,10 @@
     </row>
     <row r="344" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C344" s="8" t="s">
         <v>25</v>
@@ -14259,10 +14290,10 @@
     </row>
     <row r="345" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C345" s="8" t="s">
         <v>25</v>
@@ -14295,10 +14326,10 @@
     </row>
     <row r="346" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C346" s="8" t="s">
         <v>25</v>
@@ -14331,10 +14362,10 @@
     </row>
     <row r="347" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C347" s="8" t="s">
         <v>25</v>
@@ -14367,10 +14398,10 @@
     </row>
     <row r="348" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C348" s="8" t="s">
         <v>25</v>
@@ -14403,10 +14434,10 @@
     </row>
     <row r="349" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C349" s="8" t="s">
         <v>25</v>
@@ -14439,10 +14470,10 @@
     </row>
     <row r="350" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C350" s="8" t="s">
         <v>25</v>
@@ -14475,10 +14506,10 @@
     </row>
     <row r="351" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C351" s="8" t="s">
         <v>25</v>
@@ -14511,10 +14542,10 @@
     </row>
     <row r="352" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C352" s="8" t="s">
         <v>25</v>
@@ -14547,10 +14578,10 @@
     </row>
     <row r="353" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C353" s="8" t="s">
         <v>25</v>
@@ -14583,10 +14614,10 @@
     </row>
     <row r="354" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C354" s="8" t="s">
         <v>25</v>
@@ -14679,10 +14710,10 @@
     </row>
     <row r="357" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B357" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="C357" s="8" t="s">
         <v>25</v>
@@ -14715,10 +14746,10 @@
     </row>
     <row r="358" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C358" s="8" t="s">
         <v>25</v>
@@ -14751,10 +14782,10 @@
     </row>
     <row r="359" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C359" s="8" t="s">
         <v>25</v>
@@ -14787,10 +14818,10 @@
     </row>
     <row r="360" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C360" s="8" t="s">
         <v>25</v>
@@ -14823,10 +14854,10 @@
     </row>
     <row r="361" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C361" s="8" t="s">
         <v>25</v>
@@ -14859,10 +14890,10 @@
     </row>
     <row r="362" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C362" s="8" t="s">
         <v>25</v>
@@ -14895,10 +14926,10 @@
     </row>
     <row r="363" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C363" s="8" t="s">
         <v>25</v>
@@ -14931,10 +14962,10 @@
     </row>
     <row r="364" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C364" s="8" t="s">
         <v>25</v>
@@ -14967,10 +14998,10 @@
     </row>
     <row r="365" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C365" s="8" t="s">
         <v>25</v>
@@ -15003,10 +15034,10 @@
     </row>
     <row r="366" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C366" s="8" t="s">
         <v>25</v>
@@ -15039,10 +15070,10 @@
     </row>
     <row r="367" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C367" s="8" t="s">
         <v>25</v>
@@ -15075,10 +15106,10 @@
     </row>
     <row r="368" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C368" s="8" t="s">
         <v>25</v>
@@ -15111,10 +15142,10 @@
     </row>
     <row r="369" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C369" s="8" t="s">
         <v>25</v>
@@ -15147,10 +15178,10 @@
     </row>
     <row r="370" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C370" s="8" t="s">
         <v>25</v>
@@ -15183,10 +15214,10 @@
     </row>
     <row r="371" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C371" s="8" t="s">
         <v>25</v>
@@ -15219,10 +15250,10 @@
     </row>
     <row r="372" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C372" s="8" t="s">
         <v>25</v>
@@ -15255,10 +15286,10 @@
     </row>
     <row r="373" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C373" s="8" t="s">
         <v>25</v>
@@ -15291,10 +15322,10 @@
     </row>
     <row r="374" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C374" s="8" t="s">
         <v>25</v>
@@ -15327,10 +15358,10 @@
     </row>
     <row r="375" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C375" s="8" t="s">
         <v>25</v>
@@ -15363,10 +15394,10 @@
     </row>
     <row r="376" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C376" s="8" t="s">
         <v>25</v>
@@ -15399,10 +15430,10 @@
     </row>
     <row r="377" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C377" s="8" t="s">
         <v>25</v>
@@ -15435,10 +15466,10 @@
     </row>
     <row r="378" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C378" s="8" t="s">
         <v>25</v>
@@ -15471,10 +15502,10 @@
     </row>
     <row r="379" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C379" s="8" t="s">
         <v>25</v>
@@ -15507,10 +15538,10 @@
     </row>
     <row r="380" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C380" s="8" t="s">
         <v>25</v>
@@ -15543,10 +15574,10 @@
     </row>
     <row r="381" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C381" s="8" t="s">
         <v>25</v>
@@ -15579,10 +15610,10 @@
     </row>
     <row r="382" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C382" s="8" t="s">
         <v>25</v>
@@ -15615,10 +15646,10 @@
     </row>
     <row r="383" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C383" s="8" t="s">
         <v>25</v>
@@ -15651,10 +15682,10 @@
     </row>
     <row r="384" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C384" s="8" t="s">
         <v>25</v>
@@ -15687,10 +15718,10 @@
     </row>
     <row r="385" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C385" s="8" t="s">
         <v>25</v>
@@ -15723,10 +15754,10 @@
     </row>
     <row r="386" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C386" s="8" t="s">
         <v>25</v>
@@ -15759,10 +15790,10 @@
     </row>
     <row r="387" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C387" s="8" t="s">
         <v>25</v>
@@ -15795,10 +15826,10 @@
     </row>
     <row r="388" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C388" s="8" t="s">
         <v>25</v>
@@ -15831,10 +15862,10 @@
     </row>
     <row r="389" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C389" s="8" t="s">
         <v>25</v>
@@ -15867,10 +15898,10 @@
     </row>
     <row r="390" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C390" s="8" t="s">
         <v>25</v>
@@ -15903,10 +15934,10 @@
     </row>
     <row r="391" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C391" s="8" t="s">
         <v>25</v>
@@ -15939,10 +15970,10 @@
     </row>
     <row r="392" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C392" s="8" t="s">
         <v>25</v>
@@ -15975,10 +16006,10 @@
     </row>
     <row r="393" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C393" s="8" t="s">
         <v>25</v>
@@ -16011,10 +16042,10 @@
     </row>
     <row r="394" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C394" s="8" t="s">
         <v>25</v>
@@ -16047,10 +16078,10 @@
     </row>
     <row r="395" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C395" s="8" t="s">
         <v>25</v>
@@ -16083,10 +16114,10 @@
     </row>
     <row r="396" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>25</v>
@@ -16119,10 +16150,10 @@
     </row>
     <row r="397" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C397" s="8" t="s">
         <v>25</v>
@@ -16155,10 +16186,10 @@
     </row>
     <row r="398" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C398" s="8" t="s">
         <v>25</v>
@@ -16191,10 +16222,10 @@
     </row>
     <row r="399" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C399" s="8" t="s">
         <v>25</v>
@@ -16227,10 +16258,10 @@
     </row>
     <row r="400" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C400" s="8" t="s">
         <v>25</v>
@@ -16323,10 +16354,10 @@
     </row>
     <row r="403" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B403" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="C403" s="8" t="s">
         <v>25</v>
@@ -16359,10 +16390,10 @@
     </row>
     <row r="404" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C404" s="8" t="s">
         <v>25</v>
@@ -16395,10 +16426,10 @@
     </row>
     <row r="405" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C405" s="8" t="s">
         <v>25</v>
@@ -16431,10 +16462,10 @@
     </row>
     <row r="406" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>25</v>
@@ -16467,10 +16498,10 @@
     </row>
     <row r="407" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C407" s="8" t="s">
         <v>25</v>
@@ -16503,10 +16534,10 @@
     </row>
     <row r="408" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C408" s="8" t="s">
         <v>25</v>
@@ -16599,10 +16630,10 @@
     </row>
     <row r="411" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A411" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B411" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="B411" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="C411" s="8" t="s">
         <v>25</v>
@@ -16635,10 +16666,10 @@
     </row>
     <row r="412" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A412" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>25</v>
@@ -16671,10 +16702,10 @@
     </row>
     <row r="413" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A413" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C413" s="8" t="s">
         <v>25</v>
@@ -16707,10 +16738,10 @@
     </row>
     <row r="414" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A414" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C414" s="8" t="s">
         <v>25</v>
@@ -16743,10 +16774,10 @@
     </row>
     <row r="415" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A415" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C415" s="8" t="s">
         <v>25</v>
@@ -16779,10 +16810,10 @@
     </row>
     <row r="416" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A416" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C416" s="8" t="s">
         <v>25</v>
@@ -16815,10 +16846,10 @@
     </row>
     <row r="417" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A417" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C417" s="8" t="s">
         <v>25</v>
@@ -16851,10 +16882,10 @@
     </row>
     <row r="418" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A418" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C418" s="8" t="s">
         <v>25</v>
@@ -16887,10 +16918,10 @@
     </row>
     <row r="419" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A419" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C419" s="8" t="s">
         <v>25</v>
@@ -16923,10 +16954,10 @@
     </row>
     <row r="420" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A420" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C420" s="8" t="s">
         <v>25</v>
@@ -16959,10 +16990,10 @@
     </row>
     <row r="421" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A421" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C421" s="8" t="s">
         <v>25</v>
@@ -16995,10 +17026,10 @@
     </row>
     <row r="422" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A422" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>25</v>
@@ -17031,10 +17062,10 @@
     </row>
     <row r="423" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A423" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C423" s="8" t="s">
         <v>25</v>
@@ -17067,10 +17098,10 @@
     </row>
     <row r="424" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A424" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C424" s="8" t="s">
         <v>25</v>
@@ -17103,10 +17134,10 @@
     </row>
     <row r="425" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A425" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C425" s="8" t="s">
         <v>25</v>
@@ -17139,10 +17170,10 @@
     </row>
     <row r="426" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A426" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>25</v>
@@ -17175,10 +17206,10 @@
     </row>
     <row r="427" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A427" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>25</v>
@@ -17211,10 +17242,10 @@
     </row>
     <row r="428" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A428" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C428" s="8" t="s">
         <v>25</v>
@@ -17247,10 +17278,10 @@
     </row>
     <row r="429" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A429" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C429" s="8" t="s">
         <v>25</v>
@@ -17283,10 +17314,10 @@
     </row>
     <row r="430" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A430" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C430" s="8" t="s">
         <v>25</v>
@@ -17319,10 +17350,10 @@
     </row>
     <row r="431" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A431" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C431" s="8" t="s">
         <v>25</v>
@@ -17355,10 +17386,10 @@
     </row>
     <row r="432" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A432" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C432" s="8" t="s">
         <v>25</v>
@@ -17391,10 +17422,10 @@
     </row>
     <row r="433" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A433" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C433" s="8" t="s">
         <v>25</v>
@@ -17427,10 +17458,10 @@
     </row>
     <row r="434" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A434" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C434" s="8" t="s">
         <v>25</v>
@@ -17463,10 +17494,10 @@
     </row>
     <row r="435" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A435" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C435" s="8" t="s">
         <v>25</v>
@@ -17499,10 +17530,10 @@
     </row>
     <row r="436" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A436" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C436" s="8" t="s">
         <v>25</v>
@@ -17535,10 +17566,10 @@
     </row>
     <row r="437" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A437" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C437" s="8" t="s">
         <v>25</v>
@@ -17571,10 +17602,10 @@
     </row>
     <row r="438" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A438" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C438" s="8" t="s">
         <v>25</v>
@@ -17607,10 +17638,10 @@
     </row>
     <row r="439" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A439" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C439" s="8" t="s">
         <v>25</v>
@@ -17643,10 +17674,10 @@
     </row>
     <row r="440" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A440" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C440" s="8" t="s">
         <v>25</v>
@@ -17679,10 +17710,10 @@
     </row>
     <row r="441" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A441" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C441" s="8" t="s">
         <v>25</v>
@@ -17715,10 +17746,10 @@
     </row>
     <row r="442" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A442" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C442" s="8" t="s">
         <v>25</v>
@@ -17751,10 +17782,10 @@
     </row>
     <row r="443" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A443" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C443" s="8" t="s">
         <v>25</v>
@@ -17787,10 +17818,10 @@
     </row>
     <row r="444" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A444" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C444" s="8" t="s">
         <v>25</v>
@@ -17823,10 +17854,10 @@
     </row>
     <row r="445" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A445" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C445" s="8" t="s">
         <v>25</v>
@@ -17859,10 +17890,10 @@
     </row>
     <row r="446" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A446" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C446" s="8" t="s">
         <v>25</v>
@@ -17895,10 +17926,10 @@
     </row>
     <row r="447" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A447" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C447" s="8" t="s">
         <v>25</v>
@@ -17931,10 +17962,10 @@
     </row>
     <row r="448" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A448" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C448" s="8" t="s">
         <v>25</v>
@@ -17967,10 +17998,10 @@
     </row>
     <row r="449" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A449" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C449" s="8" t="s">
         <v>25</v>
@@ -18003,10 +18034,10 @@
     </row>
     <row r="450" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A450" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C450" s="8" t="s">
         <v>25</v>
@@ -18039,10 +18070,10 @@
     </row>
     <row r="451" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A451" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C451" s="8" t="s">
         <v>25</v>
@@ -18075,10 +18106,10 @@
     </row>
     <row r="452" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A452" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C452" s="8" t="s">
         <v>25</v>
@@ -18111,10 +18142,10 @@
     </row>
     <row r="453" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A453" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C453" s="8" t="s">
         <v>25</v>
@@ -18147,10 +18178,10 @@
     </row>
     <row r="454" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A454" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C454" s="8" t="s">
         <v>25</v>
@@ -18183,10 +18214,10 @@
     </row>
     <row r="455" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A455" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>25</v>
@@ -18219,10 +18250,10 @@
     </row>
     <row r="456" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A456" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C456" s="8" t="s">
         <v>25</v>
@@ -18255,10 +18286,10 @@
     </row>
     <row r="457" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A457" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C457" s="8" t="s">
         <v>25</v>
@@ -18291,10 +18322,10 @@
     </row>
     <row r="458" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A458" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C458" s="8" t="s">
         <v>25</v>
@@ -18327,10 +18358,10 @@
     </row>
     <row r="459" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A459" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C459" s="8" t="s">
         <v>25</v>
@@ -18363,10 +18394,10 @@
     </row>
     <row r="460" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A460" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C460" s="8" t="s">
         <v>25</v>
@@ -18399,10 +18430,10 @@
     </row>
     <row r="461" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A461" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C461" s="8" t="s">
         <v>25</v>
@@ -18435,10 +18466,10 @@
     </row>
     <row r="462" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A462" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C462" s="8" t="s">
         <v>25</v>
@@ -18471,10 +18502,10 @@
     </row>
     <row r="463" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A463" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C463" s="8" t="s">
         <v>25</v>
@@ -18507,10 +18538,10 @@
     </row>
     <row r="464" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A464" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C464" s="8" t="s">
         <v>25</v>
@@ -18543,10 +18574,10 @@
     </row>
     <row r="465" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A465" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>25</v>
@@ -18579,10 +18610,10 @@
     </row>
     <row r="466" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A466" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C466" s="8" t="s">
         <v>25</v>
@@ -18615,10 +18646,10 @@
     </row>
     <row r="467" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A467" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C467" s="8" t="s">
         <v>25</v>
@@ -18651,10 +18682,10 @@
     </row>
     <row r="468" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A468" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C468" s="8" t="s">
         <v>25</v>
@@ -18687,10 +18718,10 @@
     </row>
     <row r="469" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A469" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C469" s="8" t="s">
         <v>25</v>
@@ -18723,10 +18754,10 @@
     </row>
     <row r="470" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A470" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C470" s="8" t="s">
         <v>25</v>
@@ -18819,10 +18850,10 @@
     </row>
     <row r="473" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A473" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B473" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="B473" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="C473" s="8" t="s">
         <v>25</v>
@@ -18855,10 +18886,10 @@
     </row>
     <row r="474" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A474" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C474" s="8" t="s">
         <v>25</v>
@@ -18891,10 +18922,10 @@
     </row>
     <row r="475" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A475" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C475" s="8" t="s">
         <v>25</v>
@@ -18927,10 +18958,10 @@
     </row>
     <row r="476" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A476" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C476" s="8" t="s">
         <v>25</v>
@@ -18963,10 +18994,10 @@
     </row>
     <row r="477" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A477" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C477" s="8" t="s">
         <v>25</v>
@@ -18999,10 +19030,10 @@
     </row>
     <row r="478" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A478" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C478" s="8" t="s">
         <v>25</v>
@@ -19035,10 +19066,10 @@
     </row>
     <row r="479" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A479" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C479" s="8" t="s">
         <v>25</v>
@@ -19071,10 +19102,10 @@
     </row>
     <row r="480" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A480" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C480" s="8" t="s">
         <v>25</v>
@@ -19107,10 +19138,10 @@
     </row>
     <row r="481" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A481" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C481" s="8" t="s">
         <v>25</v>
@@ -19143,10 +19174,10 @@
     </row>
     <row r="482" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A482" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C482" s="8" t="s">
         <v>25</v>
@@ -19263,10 +19294,10 @@
     </row>
     <row r="486" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A486" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B486" s="15" t="s">
         <v>484</v>
-      </c>
-      <c r="B486" s="15" t="s">
-        <v>485</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
